--- a/examples/XlsxPeasant_06_mergingCells.xlsx
+++ b/examples/XlsxPeasant_06_mergingCells.xlsx
@@ -1,42 +1,29 @@
 
-<file path=docProps\app.xml><?xml version="1.0" encoding="utf-8"?>
-<Properties xmlns="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <Application>Microsoft Excel</Application>
-  <DocSecurity>0</DocSecurity>
-  <ScaleCrop>false</ScaleCrop>
-  <HeadingPairs>
-    <vt:vector size="2" baseType="variant">
-      <vt:variant>
-        <vt:lpstr>Arkusze</vt:lpstr>
-      </vt:variant>
-      <vt:variant>
-        <vt:i4>1</vt:i4>
-      </vt:variant>
-    </vt:vector>
-  </HeadingPairs>
-  <TitlesOfParts>
-    <vt:vector size="1" baseType="lpstr">
-      <vt:lpstr>Merging Cells Test</vt:lpstr>
-    </vt:vector>
-  </TitlesOfParts>
-  <Company/>
-  <LinksUpToDate>false</LinksUpToDate>
-  <SharedDoc>false</SharedDoc>
-  <HyperlinksChanged>false</HyperlinksChanged>
-  <AppVersion>16.0300</AppVersion>
-</Properties>
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DA762AD-7C25-487E-83A6-EDAF663DE464}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Merging Cells Test" sheetId="1" r:id="rId1"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
+</workbook>
 </file>
 
-<file path=docProps\core.xml><?xml version="1.0" encoding="utf-8"?>
-<cp:coreProperties xmlns:cp="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:dcmitype="http://purl.org/dc/dcmitype/" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <dc:creator>Karol Nowakowski</dc:creator>
-  <cp:lastModifiedBy>Karol Nowakowski</cp:lastModifiedBy>
-  <dcterms:created xsi:type="dcterms:W3CDTF">2019-04-23T10:00:38Z</dcterms:created>
-  <dcterms:modified xsi:type="dcterms:W3CDTF">2019-04-23T10:00:47Z</dcterms:modified>
-</cp:coreProperties>
-</file>
-
-<file path=xl\sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>This Cell merges two extra columns</t>
@@ -50,8 +37,11 @@
 </sst>
 </file>
 
-<file path=xl\styles.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt formatCode="#,##0\ &quot;zł&quot;;\-#,##0\ &quot;zł&quot;" numFmtId="5"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -110,9 +100,9 @@
   <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="2" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="3" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
-    <xf applyAlignment="0" applyFill="1" borderId="0" fillId="4" fontId="1" numFmtId="5" xfId="0" applyFont="1"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="0" applyFill="1" applyFont="1" applyNumberFormat="0" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -130,7 +120,7 @@
 </styleSheet>
 </file>
 
-<file path=xl\theme\theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
     <a:clrScheme name="Pakiet Office">
@@ -425,33 +415,8 @@
 </a:theme>
 </file>
 
-<file path=xl\workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\knowakowski\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A31A1446-E08E-47BC-8584-29124A2247F2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1DA762AD-7C25-487E-83A6-EDAF663DE464}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="Merging Cells Test" sheetId="1" r:id="rId1"/>
-  </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
-</file>
-
-<file path=xl\worksheets\sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05F5BE2D-D93E-4C3A-8A30-3DCC83536C04}">
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44FDF03-787B-49D9-BBF4-1DE9ACABB14B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_06_mergingCells.xlsx
+++ b/examples/XlsxPeasant_06_mergingCells.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44FDF03-787B-49D9-BBF4-1DE9ACABB14B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051157BC-2285-49E0-A75E-2D928DAC8252}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_06_mergingCells.xlsx
+++ b/examples/XlsxPeasant_06_mergingCells.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{051157BC-2285-49E0-A75E-2D928DAC8252}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D442E267-0D5D-4D16-B612-23522892EE6B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_06_mergingCells.xlsx
+++ b/examples/XlsxPeasant_06_mergingCells.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D442E267-0D5D-4D16-B612-23522892EE6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8640F770-7266-49BF-88B3-8FFC0B2AD95C}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_06_mergingCells.xlsx
+++ b/examples/XlsxPeasant_06_mergingCells.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8640F770-7266-49BF-88B3-8FFC0B2AD95C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED609A20-F030-47EE-98F4-BB6CF77205D3}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_06_mergingCells.xlsx
+++ b/examples/XlsxPeasant_06_mergingCells.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED609A20-F030-47EE-98F4-BB6CF77205D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E26F70-098F-463E-A9FF-0CC75B4509F9}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/examples/XlsxPeasant_06_mergingCells.xlsx
+++ b/examples/XlsxPeasant_06_mergingCells.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E26F70-098F-463E-A9FF-0CC75B4509F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{594D61DC-0557-41B8-A204-05A0CEFB45AF}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
